--- a/output/BA (100)_output.xlsx
+++ b/output/BA (100)_output.xlsx
@@ -413,16 +413,16 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>2.7</v>
+      </c>
+      <c r="C2">
         <v>2.5</v>
       </c>
-      <c r="C2">
-        <v>2.3</v>
-      </c>
       <c r="D2">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -430,16 +430,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="D3">
         <v>1.8</v>
       </c>
       <c r="E3">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -450,13 +450,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E4">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -464,16 +464,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="C5">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E5">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -508,16 +508,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.01020900509993226</v>
+        <v>0.0336303175001376</v>
       </c>
       <c r="C2">
-        <v>0.007543536299999687</v>
+        <v>0.008042414800365804</v>
       </c>
       <c r="D2">
-        <v>0.2153286218643188</v>
+        <v>0.2711482763290405</v>
       </c>
       <c r="E2">
-        <v>0.1835906505584717</v>
+        <v>0.2032255649566651</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -525,16 +525,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.008648105100110114</v>
+        <v>0.00897943089985347</v>
       </c>
       <c r="C3">
-        <v>0.007080929500170896</v>
+        <v>0.007368352200137452</v>
       </c>
       <c r="D3">
-        <v>0.3009223699569702</v>
+        <v>0.3449224472045899</v>
       </c>
       <c r="E3">
-        <v>0.1708974599838257</v>
+        <v>0.1779042005538941</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -542,16 +542,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.007873961900168069</v>
+        <v>0.007757097299690941</v>
       </c>
       <c r="C4">
-        <v>0.007772503800060804</v>
+        <v>0.00749069979901833</v>
       </c>
       <c r="D4">
-        <v>0.3885969161987305</v>
+        <v>0.3814058542251587</v>
       </c>
       <c r="E4">
-        <v>0.1705910682678223</v>
+        <v>0.1769958734512329</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -559,16 +559,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.008147764099976484</v>
+        <v>0.008061468299274566</v>
       </c>
       <c r="C5">
-        <v>0.007641996699931042</v>
+        <v>0.007658186699700309</v>
       </c>
       <c r="D5">
-        <v>0.4772672414779663</v>
+        <v>0.5370939970016479</v>
       </c>
       <c r="E5">
-        <v>0.1838269233703613</v>
+        <v>0.1806065559387207</v>
       </c>
     </row>
   </sheetData>
@@ -603,16 +603,16 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
         <v>59</v>
       </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
       <c r="E2">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -620,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>69</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -637,16 +637,16 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4">
         <v>59</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>12</v>
-      </c>
-      <c r="D4">
-        <v>46</v>
-      </c>
-      <c r="E4">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -654,16 +654,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>59</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -671,16 +671,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
         <v>64</v>
-      </c>
-      <c r="E6">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -688,16 +688,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -705,16 +705,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -722,16 +722,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -742,13 +742,13 @@
         <v>59</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -756,16 +756,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C11">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -800,16 +800,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -820,13 +820,13 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -837,13 +837,13 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -854,13 +854,13 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -868,16 +868,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -885,16 +885,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -905,13 +905,13 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -919,16 +919,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -942,10 +942,10 @@
         <v>33</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -953,16 +953,16 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
         <v>33</v>
-      </c>
-      <c r="C11">
-        <v>59</v>
-      </c>
-      <c r="D11">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -997,16 +997,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E2">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1020,10 +1020,10 @@
         <v>84</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1037,10 +1037,10 @@
         <v>84</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1051,13 +1051,13 @@
         <v>84</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E5">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1065,13 +1065,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>82</v>
@@ -1085,13 +1085,13 @@
         <v>84</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1102,13 +1102,13 @@
         <v>84</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1122,10 +1122,10 @@
         <v>84</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1139,10 +1139,10 @@
         <v>84</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1153,13 +1153,13 @@
         <v>84</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1211,16 +1211,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E3">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1228,16 +1228,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E4">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1245,16 +1245,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1262,16 +1262,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1279,16 +1279,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1296,16 +1296,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1313,16 +1313,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
         <v>77</v>
       </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
       <c r="E9">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1330,16 +1330,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1347,16 +1347,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E11">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
